--- a/Protocole/7plex_immunex_volume.xlsx
+++ b/Protocole/7plex_immunex_volume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre/Documents/my_projects/M2_CRC_Immunex/Protocole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre/Documents/my_projects/M2_CRC_Immunex_Lung_cancer/Protocole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783088EB-1DD9-4A40-BA2A-2F5D157BC091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E0FEC-DC2A-B549-AF3F-0E34DBF5F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="520" windowWidth="21280" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="21280" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Total" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J14"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1138,11 +1138,11 @@
         <v>42</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" ref="C11:C13" si="2">$B$4</f>
+        <f>$B$4</f>
         <v>240</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:D25" si="3">C11*$C$4</f>
+        <f t="shared" ref="D11:D25" si="2">C11*$C$4</f>
         <v>36000</v>
       </c>
       <c r="E11" s="17">
@@ -1171,11 +1171,11 @@
         <v>43</v>
       </c>
       <c r="C12" s="11">
+        <f t="shared" ref="C11:C13" si="3">$B$4</f>
+        <v>240</v>
+      </c>
+      <c r="D12" s="11">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="E12" s="17">
@@ -1204,11 +1204,11 @@
         <v>44</v>
       </c>
       <c r="C13" s="11">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="E13" s="17">
@@ -1241,7 +1241,7 @@
         <v>240</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E14" s="17">
@@ -1274,7 +1274,7 @@
         <v>1440</v>
       </c>
       <c r="D15" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>216000</v>
       </c>
       <c r="E15" s="28">
@@ -1311,7 +1311,7 @@
         <v>240</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E17" s="14">
@@ -1346,7 +1346,7 @@
         <v>240</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E18" s="17">
@@ -1381,7 +1381,7 @@
         <v>240</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E19" s="17">
@@ -1416,7 +1416,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E20" s="17">
@@ -1451,7 +1451,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E21" s="17">
@@ -1486,7 +1486,7 @@
         <v>240</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E22" s="17">
@@ -1527,7 +1527,7 @@
         <v>240</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E23" s="20">
@@ -1572,7 +1572,7 @@
         <v>240</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E25" s="9">
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD58D4E-80D6-F44F-A3F4-E0B9CB7B4545}">
   <dimension ref="A4:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
